--- a/original_dataset/s&p500.xlsx
+++ b/original_dataset/s&p500.xlsx
@@ -10477,7 +10477,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10488,13 +10488,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -10546,22 +10552,22 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -10892,7 +10898,7 @@
     <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="10.719285714285713" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="8" width="43.14785714285715" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="8" width="38.14785714285715" customWidth="1" bestFit="1"/>
@@ -11142,7 +11148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -11167,7 +11173,7 @@
       <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>95051</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -11252,7 +11258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -11277,7 +11283,7 @@
       <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>94025</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -11362,7 +11368,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -11387,7 +11393,7 @@
       <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>94304</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -11472,7 +11478,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
@@ -11582,7 +11588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
@@ -11607,7 +11613,7 @@
       <c r="H7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>55343</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -11692,7 +11698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
@@ -11717,7 +11723,7 @@
       <c r="H8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>78741</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -11802,7 +11808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -11827,7 +11833,7 @@
       <c r="H9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>10577</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -11912,7 +11918,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
@@ -11937,7 +11943,7 @@
       <c r="H10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>45202</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -12022,7 +12028,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>113</v>
       </c>
@@ -12047,7 +12053,7 @@
       <c r="H11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>98027</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -12132,7 +12138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -12157,7 +12163,7 @@
       <c r="H12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>30339</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -12242,7 +12248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>133</v>
       </c>
@@ -12352,7 +12358,7 @@
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>143</v>
       </c>
@@ -12377,7 +12383,7 @@
       <c r="H14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>95032</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -12462,7 +12468,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -12572,7 +12578,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
         <v>162</v>
       </c>
@@ -12597,7 +12603,7 @@
       <c r="H16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <v>95054</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -12682,7 +12688,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>168</v>
       </c>
@@ -12707,7 +12713,7 @@
       <c r="H17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>94105</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -12792,7 +12798,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2" t="s">
         <v>175</v>
       </c>
@@ -12817,7 +12823,7 @@
       <c r="H18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>10577</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -12902,7 +12908,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2" t="s">
         <v>183</v>
       </c>
@@ -13012,7 +13018,7 @@
         <v>192</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2" t="s">
         <v>193</v>
       </c>
@@ -13122,7 +13128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2" t="s">
         <v>201</v>
       </c>
@@ -13232,7 +13238,7 @@
         <v>208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2" t="s">
         <v>209</v>
       </c>
@@ -13342,7 +13348,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2" t="s">
         <v>218</v>
       </c>
@@ -13452,7 +13458,7 @@
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2" t="s">
         <v>225</v>
       </c>
@@ -13587,7 +13593,7 @@
       <c r="H25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <v>75243</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -13697,7 +13703,7 @@
       <c r="H26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="3">
         <v>10285</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -13807,7 +13813,7 @@
       <c r="H27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="3">
         <v>95054</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -14027,7 +14033,7 @@
       <c r="H29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="3">
         <v>94043</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -14137,7 +14143,7 @@
       <c r="H30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
         <v>75039</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -14357,7 +14363,7 @@
       <c r="H32" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="3">
         <v>33408</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -14577,7 +14583,7 @@
       <c r="H34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="3">
         <v>10041</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -14687,7 +14693,7 @@
       <c r="H35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="3">
         <v>10036</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -15017,7 +15023,7 @@
       <c r="H38" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="3">
         <v>68179</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -15127,7 +15133,7 @@
       <c r="H39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="3">
         <v>44143</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -15237,7 +15243,7 @@
       <c r="H40" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="3">
         <v>49002</v>
       </c>
       <c r="J40" s="2" t="s">
@@ -15457,7 +15463,7 @@
       <c r="H42" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="3">
         <v>20817</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -15677,7 +15683,7 @@
       <c r="H44" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="3">
         <v>28202</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -15897,7 +15903,7 @@
       <c r="H46" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="3">
         <v>46204</v>
       </c>
       <c r="J46" s="2" t="s">
@@ -16117,7 +16123,7 @@
       <c r="H48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="3">
         <v>94111</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -16227,7 +16233,7 @@
       <c r="H49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="3">
         <v>95054</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -16447,7 +16453,7 @@
       <c r="H51" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="3">
         <v>30328</v>
       </c>
       <c r="J51" s="2" t="s">
@@ -16667,7 +16673,7 @@
       <c r="H53" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="3">
         <v>61265</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -16887,7 +16893,7 @@
       <c r="H55" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="3">
         <v>98134</v>
       </c>
       <c r="J55" s="2" t="s">
@@ -16997,7 +17003,7 @@
       <c r="H56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="3">
         <v>95054</v>
       </c>
       <c r="J56" s="2" t="s">
@@ -17217,7 +17223,7 @@
       <c r="H58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="3">
         <v>94404</v>
       </c>
       <c r="J58" s="2" t="s">
@@ -17327,7 +17333,7 @@
       <c r="H59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="3">
         <v>95035</v>
       </c>
       <c r="J59" s="2" t="s">
@@ -17437,7 +17443,7 @@
       <c r="H60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="3">
         <v>94538</v>
       </c>
       <c r="J60" s="2" t="s">
@@ -17547,7 +17553,7 @@
       <c r="H61" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="3">
         <v>37203</v>
       </c>
       <c r="J61" s="2" t="s">
@@ -17767,7 +17773,7 @@
       <c r="H63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="3">
         <v>60607</v>
       </c>
       <c r="J63" s="2" t="s">
@@ -18097,7 +18103,7 @@
       <c r="H66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="3">
         <v>30308</v>
       </c>
       <c r="J66" s="2" t="s">
@@ -18427,7 +18433,7 @@
       <c r="H69" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="3">
         <v>10007</v>
       </c>
       <c r="J69" s="2" t="s">
@@ -18537,7 +18543,7 @@
       <c r="H70" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="3">
         <v>28202</v>
       </c>
       <c r="J70" s="2" t="s">
@@ -18757,7 +18763,7 @@
       <c r="H72" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="3">
         <v>23230</v>
       </c>
       <c r="J72" s="2" t="s">
@@ -18867,7 +18873,7 @@
       <c r="H73" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="3">
         <v>20190</v>
       </c>
       <c r="J73" s="2" t="s">
@@ -19087,7 +19093,7 @@
       <c r="H75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="3">
         <v>94103</v>
       </c>
       <c r="J75" s="2" t="s">
@@ -19307,7 +19313,7 @@
       <c r="H77" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="3">
         <v>77002</v>
       </c>
       <c r="J77" s="2" t="s">
@@ -19527,7 +19533,7 @@
       <c r="H79" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="3">
         <v>95131</v>
       </c>
       <c r="J79" s="2" t="s">
@@ -19637,7 +19643,7 @@
       <c r="H80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="3">
         <v>94085</v>
       </c>
       <c r="J80" s="2" t="s">
@@ -19747,7 +19753,7 @@
       <c r="H81" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="3">
         <v>92660</v>
       </c>
       <c r="J81" s="2" t="s">
@@ -19967,7 +19973,7 @@
       <c r="H83" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="3">
         <v>44114</v>
       </c>
       <c r="J83" s="2" t="s">
@@ -20077,7 +20083,7 @@
       <c r="H84" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="3">
         <v>60606</v>
       </c>
       <c r="J84" s="2" t="s">
@@ -20187,7 +20193,7 @@
       <c r="H85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="3">
         <v>95134</v>
       </c>
       <c r="J85" s="2" t="s">
@@ -20297,7 +20303,7 @@
       <c r="H86" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="3">
         <v>22042</v>
       </c>
       <c r="J86" s="2" t="s">
@@ -20847,7 +20853,7 @@
       <c r="H91" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="3">
         <v>60661</v>
       </c>
       <c r="J91" s="2" t="s">
@@ -20957,7 +20963,7 @@
       <c r="H92" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="3">
         <v>33418</v>
       </c>
       <c r="J92" s="2" t="s">
@@ -21067,7 +21073,7 @@
       <c r="H93" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="3">
         <v>55403</v>
       </c>
       <c r="J93" s="2" t="s">
@@ -21177,7 +21183,7 @@
       <c r="H94" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="3">
         <v>77002</v>
       </c>
       <c r="J94" s="2" t="s">
@@ -21397,7 +21403,7 @@
       <c r="H96" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="3">
         <v>78701</v>
       </c>
       <c r="J96" s="2" t="s">
@@ -21507,7 +21513,7 @@
       <c r="H97" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="3">
         <v>20814</v>
       </c>
       <c r="J97" s="2" t="s">
@@ -21727,7 +21733,7 @@
       <c r="H99" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="3">
         <v>32202</v>
       </c>
       <c r="J99" s="2" t="s">
@@ -21837,7 +21843,7 @@
       <c r="H100" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="3">
         <v>75039</v>
       </c>
       <c r="J100" s="2" t="s">
@@ -22277,7 +22283,7 @@
       <c r="H104" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="3">
         <v>76011</v>
       </c>
       <c r="J104" s="2" t="s">
@@ -22387,7 +22393,7 @@
       <c r="H105" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="3">
         <v>85054</v>
       </c>
       <c r="J105" s="2" t="s">
@@ -22717,7 +22723,7 @@
       <c r="H108" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="3">
         <v>31999</v>
       </c>
       <c r="J108" s="2" t="s">
@@ -22827,7 +22833,7 @@
       <c r="H109" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="3">
         <v>63136</v>
       </c>
       <c r="J109" s="2" t="s">
@@ -22937,7 +22943,7 @@
       <c r="H110" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="3">
         <v>34240</v>
       </c>
       <c r="J110" s="2" t="s">
@@ -23047,7 +23053,7 @@
       <c r="H111" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="3">
         <v>94105</v>
       </c>
       <c r="J111" s="2" t="s">
@@ -23157,7 +23163,7 @@
       <c r="H112" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="3">
         <v>94086</v>
       </c>
       <c r="J112" s="2" t="s">
@@ -23267,7 +23273,7 @@
       <c r="H113" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="3">
         <v>22102</v>
       </c>
       <c r="J113" s="2" t="s">
@@ -23707,7 +23713,7 @@
       <c r="H117" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I117" s="2">
+      <c r="I117" s="3">
         <v>77042</v>
       </c>
       <c r="J117" s="2" t="s">
@@ -23817,7 +23823,7 @@
       <c r="H118" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I118" s="2">
+      <c r="I118" s="3">
         <v>22102</v>
       </c>
       <c r="J118" s="2" t="s">
@@ -23927,7 +23933,7 @@
       <c r="H119" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="I119" s="2">
+      <c r="I119" s="3">
         <v>74172</v>
       </c>
       <c r="J119" s="2" t="s">
@@ -24037,7 +24043,7 @@
       <c r="H120" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="I120" s="2">
+      <c r="I120" s="3">
         <v>74103</v>
       </c>
       <c r="J120" s="2" t="s">
@@ -24147,7 +24153,7 @@
       <c r="H121" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I121" s="2">
+      <c r="I121" s="3">
         <v>10017</v>
       </c>
       <c r="J121" s="2" t="s">
@@ -24477,7 +24483,7 @@
       <c r="H124" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I124" s="2">
+      <c r="I124" s="3">
         <v>10286</v>
       </c>
       <c r="J124" s="2" t="s">
@@ -24587,7 +24593,7 @@
       <c r="H125" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I125" s="2">
+      <c r="I125" s="3">
         <v>92130</v>
       </c>
       <c r="J125" s="2" t="s">
@@ -24697,7 +24703,7 @@
       <c r="H126" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I126" s="2">
+      <c r="I126" s="3">
         <v>33126</v>
       </c>
       <c r="J126" s="2" t="s">
@@ -24917,7 +24923,7 @@
       <c r="H128" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I128" s="3">
         <v>92101</v>
       </c>
       <c r="J128" s="2" t="s">
@@ -25027,7 +25033,7 @@
       <c r="H129" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I129" s="3">
         <v>38103</v>
       </c>
       <c r="J129" s="2" t="s">
@@ -25137,7 +25143,7 @@
       <c r="H130" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I130" s="3">
         <v>98004</v>
       </c>
       <c r="J130" s="2" t="s">
@@ -25467,7 +25473,7 @@
       <c r="H133" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I133" s="3">
         <v>92879</v>
       </c>
       <c r="J133" s="2" t="s">
@@ -25687,7 +25693,7 @@
       <c r="H135" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I135" s="3">
         <v>75254</v>
       </c>
       <c r="J135" s="2" t="s">
@@ -25797,7 +25803,7 @@
       <c r="H136" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I136" s="3">
         <v>60062</v>
       </c>
       <c r="J136" s="2" t="s">
@@ -26237,7 +26243,7 @@
       <c r="H140" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I140" s="2">
+      <c r="I140" s="3">
         <v>77002</v>
       </c>
       <c r="J140" s="2" t="s">
@@ -26347,7 +26353,7 @@
       <c r="H141" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I141" s="2">
+      <c r="I141" s="3">
         <v>23219</v>
       </c>
       <c r="J141" s="2" t="s">
@@ -26567,7 +26573,7 @@
       <c r="H143" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I143" s="2">
+      <c r="I143" s="3">
         <v>10020</v>
       </c>
       <c r="J143" s="2" t="s">
@@ -26677,7 +26683,7 @@
       <c r="H144" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I144" s="2">
+      <c r="I144" s="3">
         <v>32202</v>
       </c>
       <c r="J144" s="2" t="s">
@@ -26787,7 +26793,7 @@
       <c r="H145" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I145" s="3">
         <v>8200</v>
       </c>
       <c r="J145" s="2" t="s">
@@ -26897,7 +26903,7 @@
       <c r="H146" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I146" s="3">
         <v>14564</v>
       </c>
       <c r="J146" s="2" t="s">
@@ -27007,7 +27013,7 @@
       <c r="H147" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I147" s="2">
+      <c r="I147" s="3">
         <v>55474</v>
       </c>
       <c r="J147" s="2" t="s">
@@ -27117,7 +27123,7 @@
       <c r="H148" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I148" s="3">
         <v>78249</v>
       </c>
       <c r="J148" s="2" t="s">
@@ -27227,7 +27233,7 @@
       <c r="H149" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I149" s="2">
+      <c r="I149" s="3">
         <v>98033</v>
       </c>
       <c r="J149" s="2" t="s">
@@ -27337,7 +27343,7 @@
       <c r="H150" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I150" s="2">
+      <c r="I150" s="3">
         <v>27703</v>
       </c>
       <c r="J150" s="2" t="s">
@@ -27447,7 +27453,7 @@
       <c r="H151" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I151" s="2">
+      <c r="I151" s="3">
         <v>48126</v>
       </c>
       <c r="J151" s="2" t="s">
@@ -27667,7 +27673,7 @@
       <c r="H153" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I153" s="2">
+      <c r="I153" s="3">
         <v>10007</v>
       </c>
       <c r="J153" s="2" t="s">
@@ -27997,7 +28003,7 @@
       <c r="H156" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I156" s="2">
+      <c r="I156" s="3">
         <v>10036</v>
       </c>
       <c r="J156" s="2" t="s">
@@ -28107,7 +28113,7 @@
       <c r="H157" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I157" s="2">
+      <c r="I157" s="3">
         <v>77008</v>
       </c>
       <c r="J157" s="2" t="s">
@@ -28327,7 +28333,7 @@
       <c r="H159" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I159" s="2">
+      <c r="I159" s="3">
         <v>15222</v>
       </c>
       <c r="J159" s="2" t="s">
@@ -28437,7 +28443,7 @@
       <c r="H160" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I160" s="2">
+      <c r="I160" s="3">
         <v>94612</v>
       </c>
       <c r="J160" s="2" t="s">
@@ -28657,7 +28663,7 @@
       <c r="H162" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I162" s="2">
+      <c r="I162" s="3">
         <v>55426</v>
       </c>
       <c r="J162" s="2" t="s">
@@ -28877,7 +28883,7 @@
       <c r="H164" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I164" s="2">
+      <c r="I164" s="3">
         <v>10036</v>
       </c>
       <c r="J164" s="2" t="s">
@@ -28987,7 +28993,7 @@
       <c r="H165" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I165" s="2">
+      <c r="I165" s="3">
         <v>95051</v>
       </c>
       <c r="J165" s="2" t="s">
@@ -29207,7 +29213,7 @@
       <c r="H167" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I167" s="2">
+      <c r="I167" s="3">
         <v>92614</v>
       </c>
       <c r="J167" s="2" t="s">
@@ -29317,7 +29323,7 @@
       <c r="H168" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I168" s="2">
+      <c r="I168" s="3">
         <v>46268</v>
       </c>
       <c r="J168" s="2" t="s">
@@ -29427,7 +29433,7 @@
       <c r="H169" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I169" s="2">
+      <c r="I169" s="3">
         <v>63105</v>
       </c>
       <c r="J169" s="2" t="s">
@@ -30087,7 +30093,7 @@
       <c r="H175" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I175" s="2">
+      <c r="I175" s="3">
         <v>14831</v>
       </c>
       <c r="J175" s="2" t="s">
@@ -30197,7 +30203,7 @@
       <c r="H176" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="I176" s="2">
+      <c r="I176" s="3">
         <v>40202</v>
       </c>
       <c r="J176" s="2" t="s">
@@ -30307,7 +30313,7 @@
       <c r="H177" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I177" s="2">
+      <c r="I177" s="3">
         <v>30309</v>
       </c>
       <c r="J177" s="2" t="s">
@@ -30527,7 +30533,7 @@
       <c r="H179" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I179" s="2">
+      <c r="I179" s="3">
         <v>94065</v>
       </c>
       <c r="J179" s="2" t="s">
@@ -30637,7 +30643,7 @@
       <c r="H180" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I180" s="2">
+      <c r="I180" s="3">
         <v>48674</v>
       </c>
       <c r="J180" s="2" t="s">
@@ -30747,7 +30753,7 @@
       <c r="H181" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="I181" s="2">
+      <c r="I181" s="3">
         <v>40213</v>
       </c>
       <c r="J181" s="2" t="s">
@@ -30857,7 +30863,7 @@
       <c r="H182" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I182" s="2">
+      <c r="I182" s="3">
         <v>75201</v>
       </c>
       <c r="J182" s="2" t="s">
@@ -31077,7 +31083,7 @@
       <c r="H184" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I184" s="2">
+      <c r="I184" s="3">
         <v>60015</v>
       </c>
       <c r="J184" s="2" t="s">
@@ -31187,7 +31193,7 @@
       <c r="H185" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I185" s="2">
+      <c r="I185" s="3">
         <v>92123</v>
       </c>
       <c r="J185" s="2" t="s">
@@ -31297,7 +31303,7 @@
       <c r="H186" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I186" s="2">
+      <c r="I186" s="3">
         <v>10003</v>
       </c>
       <c r="J186" s="2" t="s">
@@ -31407,7 +31413,7 @@
       <c r="H187" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I187" s="2">
+      <c r="I187" s="3">
         <v>28211</v>
       </c>
       <c r="J187" s="2" t="s">
@@ -31627,7 +31633,7 @@
       <c r="H189" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I189" s="2">
+      <c r="I189" s="3">
         <v>94304</v>
       </c>
       <c r="J189" s="2" t="s">
@@ -31847,7 +31853,7 @@
       <c r="H191" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I191" s="2">
+      <c r="I191" s="3">
         <v>77002</v>
       </c>
       <c r="J191" s="2" t="s">
@@ -31957,7 +31963,7 @@
       <c r="H192" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I192" s="2">
+      <c r="I192" s="3">
         <v>27612</v>
       </c>
       <c r="J192" s="2" t="s">
@@ -32177,7 +32183,7 @@
       <c r="H194" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="I194" s="2">
+      <c r="I194" s="3">
         <v>35242</v>
       </c>
       <c r="J194" s="2" t="s">
@@ -32287,7 +32293,7 @@
       <c r="H195" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I195" s="2">
+      <c r="I195" s="3">
         <v>20003</v>
       </c>
       <c r="J195" s="2" t="s">
@@ -32397,7 +32403,7 @@
       <c r="H196" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I196" s="2">
+      <c r="I196" s="3">
         <v>20005</v>
       </c>
       <c r="J196" s="2" t="s">
@@ -32507,7 +32513,7 @@
       <c r="H197" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I197" s="2">
+      <c r="I197" s="3">
         <v>91770</v>
       </c>
       <c r="J197" s="2" t="s">
@@ -32617,7 +32623,7 @@
       <c r="H198" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I198" s="2">
+      <c r="I198" s="3">
         <v>10153</v>
       </c>
       <c r="J198" s="2" t="s">
@@ -32727,7 +32733,7 @@
       <c r="H199" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I199" s="2">
+      <c r="I199" s="3">
         <v>15212</v>
       </c>
       <c r="J199" s="2" t="s">
@@ -32837,7 +32843,7 @@
       <c r="H200" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I200" s="2">
+      <c r="I200" s="3">
         <v>95125</v>
       </c>
       <c r="J200" s="2" t="s">
@@ -32947,7 +32953,7 @@
       <c r="H201" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="I201" s="2">
+      <c r="I201" s="3">
         <v>53204</v>
       </c>
       <c r="J201" s="2" t="s">
@@ -33057,7 +33063,7 @@
       <c r="H202" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I202" s="2">
+      <c r="I202" s="3">
         <v>43240</v>
       </c>
       <c r="J202" s="2" t="s">
@@ -33167,7 +33173,7 @@
       <c r="H203" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I203" s="2">
+      <c r="I203" s="3">
         <v>15272</v>
       </c>
       <c r="J203" s="2" t="s">
@@ -33277,7 +33283,7 @@
       <c r="H204" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="I204" s="2">
+      <c r="I204" s="3">
         <v>89119</v>
       </c>
       <c r="J204" s="2" t="s">
@@ -33387,7 +33393,7 @@
       <c r="H205" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I205" s="2">
+      <c r="I205" s="3">
         <v>14203</v>
       </c>
       <c r="J205" s="2" t="s">
@@ -33497,7 +33503,7 @@
       <c r="H206" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I206" s="2">
+      <c r="I206" s="3">
         <v>30326</v>
       </c>
       <c r="J206" s="2" t="s">
@@ -33607,7 +33613,7 @@
       <c r="H207" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I207" s="2">
+      <c r="I207" s="3">
         <v>60601</v>
       </c>
       <c r="J207" s="2" t="s">
@@ -33717,7 +33723,7 @@
       <c r="H208" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="I208" s="2">
+      <c r="I208" s="3">
         <v>53201</v>
       </c>
       <c r="J208" s="2" t="s">
@@ -33827,7 +33833,7 @@
       <c r="H209" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I209" s="2">
+      <c r="I209" s="3">
         <v>37027</v>
       </c>
       <c r="J209" s="2" t="s">
@@ -33937,7 +33943,7 @@
       <c r="H210" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I210" s="2">
+      <c r="I210" s="3">
         <v>45263</v>
       </c>
       <c r="J210" s="2" t="s">
@@ -34157,7 +34163,7 @@
       <c r="H212" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I212" s="2">
+      <c r="I212" s="3">
         <v>20190</v>
       </c>
       <c r="J212" s="2" t="s">
@@ -34377,7 +34383,7 @@
       <c r="H214" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I214" s="2">
+      <c r="I214" s="3">
         <v>30326</v>
       </c>
       <c r="J214" s="2" t="s">
@@ -34597,7 +34603,7 @@
       <c r="H216" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I216" s="2">
+      <c r="I216" s="3">
         <v>92121</v>
       </c>
       <c r="J216" s="2" t="s">
@@ -34707,7 +34713,7 @@
       <c r="H217" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I217" s="2">
+      <c r="I217" s="3">
         <v>15317</v>
       </c>
       <c r="J217" s="2" t="s">
@@ -34817,7 +34823,7 @@
       <c r="H218" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I218" s="2">
+      <c r="I218" s="3">
         <v>60654</v>
       </c>
       <c r="J218" s="2" t="s">
@@ -34927,7 +34933,7 @@
       <c r="H219" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I219" s="2">
+      <c r="I219" s="3">
         <v>10036</v>
       </c>
       <c r="J219" s="2" t="s">
@@ -35037,7 +35043,7 @@
       <c r="H220" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="I220" s="2">
+      <c r="I220" s="3">
         <v>70113</v>
       </c>
       <c r="J220" s="2" t="s">
@@ -35147,7 +35153,7 @@
       <c r="H221" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I221" s="2">
+      <c r="I221" s="3">
         <v>98203</v>
       </c>
       <c r="J221" s="2" t="s">
@@ -35367,7 +35373,7 @@
       <c r="H223" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I223" s="2">
+      <c r="I223" s="3">
         <v>43017</v>
       </c>
       <c r="J223" s="2" t="s">
@@ -35697,7 +35703,7 @@
       <c r="H226" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I226" s="2">
+      <c r="I226" s="3">
         <v>77032</v>
       </c>
       <c r="J226" s="2" t="s">
@@ -35807,7 +35813,7 @@
       <c r="H227" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I227" s="2">
+      <c r="I227" s="3">
         <v>60515</v>
       </c>
       <c r="J227" s="2" t="s">
@@ -36247,7 +36253,7 @@
       <c r="H231" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I231" s="2">
+      <c r="I231" s="3">
         <v>33716</v>
       </c>
       <c r="J231" s="2" t="s">
@@ -36577,7 +36583,7 @@
       <c r="H234" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I234" s="2">
+      <c r="I234" s="3">
         <v>44308</v>
       </c>
       <c r="J234" s="2" t="s">
@@ -36687,7 +36693,7 @@
       <c r="H235" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I235" s="2">
+      <c r="I235" s="3">
         <v>95128</v>
       </c>
       <c r="J235" s="2" t="s">
@@ -36797,7 +36803,7 @@
       <c r="H236" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I236" s="2">
+      <c r="I236" s="3">
         <v>21202</v>
       </c>
       <c r="J236" s="2" t="s">
@@ -36907,7 +36913,7 @@
       <c r="H237" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I237" s="2">
+      <c r="I237" s="3">
         <v>75024</v>
       </c>
       <c r="J237" s="2" t="s">
@@ -37017,7 +37023,7 @@
       <c r="H238" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I238" s="2">
+      <c r="I238" s="3">
         <v>77389</v>
       </c>
       <c r="J238" s="2" t="s">
@@ -37237,7 +37243,7 @@
       <c r="H240" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I240" s="2">
+      <c r="I240" s="3">
         <v>30324</v>
       </c>
       <c r="J240" s="2" t="s">
@@ -37347,7 +37353,7 @@
       <c r="H241" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I241" s="2">
+      <c r="I241" s="3">
         <v>11042</v>
       </c>
       <c r="J241" s="2" t="s">
@@ -37457,7 +37463,7 @@
       <c r="H242" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I242" s="2">
+      <c r="I242" s="3">
         <v>90210</v>
       </c>
       <c r="J242" s="2" t="s">
@@ -37787,7 +37793,7 @@
       <c r="H245" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I245" s="2">
+      <c r="I245" s="3">
         <v>95119</v>
       </c>
       <c r="J245" s="2" t="s">
@@ -38007,7 +38013,7 @@
       <c r="H247" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I247" s="2">
+      <c r="I247" s="3">
         <v>21031</v>
       </c>
       <c r="J247" s="2" t="s">
@@ -38117,7 +38123,7 @@
       <c r="H248" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I248" s="2">
+      <c r="I248" s="3">
         <v>63103</v>
       </c>
       <c r="J248" s="2" t="s">
@@ -38447,7 +38453,7 @@
       <c r="H251" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I251" s="2">
+      <c r="I251" s="3">
         <v>94583</v>
       </c>
       <c r="J251" s="2" t="s">
@@ -38777,7 +38783,7 @@
       <c r="H254" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I254" s="2">
+      <c r="I254" s="3">
         <v>739009</v>
       </c>
       <c r="J254" s="2" t="s">
@@ -38887,7 +38893,7 @@
       <c r="H255" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I255" s="2">
+      <c r="I255" s="3">
         <v>43287</v>
       </c>
       <c r="J255" s="2" t="s">
@@ -38997,7 +39003,7 @@
       <c r="H256" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I256" s="2">
+      <c r="I256" s="3">
         <v>60607</v>
       </c>
       <c r="J256" s="2" t="s">
@@ -39327,7 +39333,7 @@
       <c r="H259" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="I259" s="2">
+      <c r="I259" s="3">
         <v>35203</v>
       </c>
       <c r="J259" s="2" t="s">
@@ -39437,7 +39443,7 @@
       <c r="H260" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I260" s="2">
+      <c r="I260" s="3">
         <v>55423</v>
       </c>
       <c r="J260" s="2" t="s">
@@ -39657,7 +39663,7 @@
       <c r="H262" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I262" s="2">
+      <c r="I262" s="3">
         <v>75240</v>
       </c>
       <c r="J262" s="2" t="s">
@@ -39767,7 +39773,7 @@
       <c r="H263" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I263" s="2">
+      <c r="I263" s="3">
         <v>20190</v>
       </c>
       <c r="J263" s="2" t="s">
@@ -39987,7 +39993,7 @@
       <c r="H265" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I265" s="2">
+      <c r="I265" s="3">
         <v>49201</v>
       </c>
       <c r="J265" s="2" t="s">
@@ -40097,7 +40103,7 @@
       <c r="H266" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I266" s="2">
+      <c r="I266" s="3">
         <v>90802</v>
       </c>
       <c r="J266" s="2" t="s">
@@ -40207,7 +40213,7 @@
       <c r="H267" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I267" s="2">
+      <c r="I267" s="3">
         <v>32837</v>
       </c>
       <c r="J267" s="2" t="s">
@@ -40317,7 +40323,7 @@
       <c r="H268" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I268" s="2">
+      <c r="I268" s="3">
         <v>10017</v>
       </c>
       <c r="J268" s="2" t="s">
@@ -40977,7 +40983,7 @@
       <c r="H274" s="2" t="s">
         <v>2115</v>
       </c>
-      <c r="I274" s="2">
+      <c r="I274" s="3">
         <v>50392</v>
       </c>
       <c r="J274" s="2" t="s">
@@ -41087,7 +41093,7 @@
       <c r="H275" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I275" s="2">
+      <c r="I275" s="3">
         <v>30339</v>
       </c>
       <c r="J275" s="2" t="s">
@@ -41307,7 +41313,7 @@
       <c r="H277" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I277" s="2">
+      <c r="I277" s="3">
         <v>60045</v>
       </c>
       <c r="J277" s="2" t="s">
@@ -41637,7 +41643,7 @@
       <c r="H280" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I280" s="2">
+      <c r="I280" s="3">
         <v>60440</v>
       </c>
       <c r="J280" s="2" t="s">
@@ -41747,7 +41753,7 @@
       <c r="H281" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I281" s="2">
+      <c r="I281" s="3">
         <v>37072</v>
       </c>
       <c r="J281" s="2" t="s">
@@ -41857,7 +41863,7 @@
       <c r="H282" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I282" s="2">
+      <c r="I282" s="3">
         <v>27215</v>
       </c>
       <c r="J282" s="2" t="s">
@@ -41967,7 +41973,7 @@
       <c r="H283" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I283" s="2">
+      <c r="I283" s="3">
         <v>60069</v>
       </c>
       <c r="J283" s="2" t="s">
@@ -42077,7 +42083,7 @@
       <c r="H284" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I284" s="2">
+      <c r="I284" s="3">
         <v>60603</v>
       </c>
       <c r="J284" s="2" t="s">
@@ -42187,7 +42193,7 @@
       <c r="H285" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I285" s="2">
+      <c r="I285" s="3">
         <v>77002</v>
       </c>
       <c r="J285" s="2" t="s">
@@ -42297,7 +42303,7 @@
       <c r="H286" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I286" s="2">
+      <c r="I286" s="3">
         <v>48152</v>
       </c>
       <c r="J286" s="2" t="s">
@@ -42407,7 +42413,7 @@
       <c r="H287" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I287" s="2">
+      <c r="I287" s="3">
         <v>20190</v>
       </c>
       <c r="J287" s="2" t="s">
@@ -42627,7 +42633,7 @@
       <c r="H289" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I289" s="2">
+      <c r="I289" s="3">
         <v>98104</v>
       </c>
       <c r="J289" s="2" t="s">
@@ -42957,7 +42963,7 @@
       <c r="H292" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I292" s="2">
+      <c r="I292" s="3">
         <v>60606</v>
       </c>
       <c r="J292" s="2" t="s">
@@ -43067,7 +43073,7 @@
       <c r="H293" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I293" s="2">
+      <c r="I293" s="3">
         <v>38197</v>
       </c>
       <c r="J293" s="2" t="s">
@@ -43177,7 +43183,7 @@
       <c r="H294" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I294" s="2">
+      <c r="I294" s="3">
         <v>77024</v>
       </c>
       <c r="J294" s="2" t="s">
@@ -43507,7 +43513,7 @@
       <c r="H297" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I297" s="2">
+      <c r="I297" s="3">
         <v>44060</v>
       </c>
       <c r="J297" s="2" t="s">
@@ -43727,7 +43733,7 @@
       <c r="H299" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I299" s="2">
+      <c r="I299" s="3">
         <v>77002</v>
       </c>
       <c r="J299" s="2" t="s">
@@ -43837,7 +43843,7 @@
       <c r="H300" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="I300" s="2">
+      <c r="I300" s="3">
         <v>85281</v>
       </c>
       <c r="J300" s="2" t="s">
@@ -44167,7 +44173,7 @@
       <c r="H303" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I303" s="2">
+      <c r="I303" s="3">
         <v>92617</v>
       </c>
       <c r="J303" s="2" t="s">
@@ -44277,7 +44283,7 @@
       <c r="H304" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I304" s="2">
+      <c r="I304" s="3">
         <v>23320</v>
       </c>
       <c r="J304" s="2" t="s">
@@ -44387,7 +44393,7 @@
       <c r="H305" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I305" s="2">
+      <c r="I305" s="3">
         <v>60062</v>
       </c>
       <c r="J305" s="2" t="s">
@@ -44827,7 +44833,7 @@
       <c r="H309" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I309" s="2">
+      <c r="I309" s="3">
         <v>60654</v>
       </c>
       <c r="J309" s="2" t="s">
@@ -45267,7 +45273,7 @@
       <c r="H313" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I313" s="2">
+      <c r="I313" s="3">
         <v>60062</v>
       </c>
       <c r="J313" s="2" t="s">
@@ -45487,7 +45493,7 @@
       <c r="H315" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="I315" s="2">
+      <c r="I315" s="3">
         <v>53143</v>
       </c>
       <c r="J315" s="2" t="s">
@@ -45597,7 +45603,7 @@
       <c r="H316" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I316" s="2">
+      <c r="I316" s="3">
         <v>46410</v>
       </c>
       <c r="J316" s="2" t="s">
@@ -45817,7 +45823,7 @@
       <c r="H318" s="2" t="s">
         <v>2382</v>
       </c>
-      <c r="I318" s="2">
+      <c r="I318" s="3">
         <v>80021</v>
       </c>
       <c r="J318" s="2" t="s">
@@ -46037,7 +46043,7 @@
       <c r="H320" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I320" s="2">
+      <c r="I320" s="3">
         <v>64105</v>
       </c>
       <c r="J320" s="2" t="s">
@@ -46147,7 +46153,7 @@
       <c r="H321" s="2" t="s">
         <v>2382</v>
       </c>
-      <c r="I321" s="2">
+      <c r="I321" s="3">
         <v>80202</v>
       </c>
       <c r="J321" s="2" t="s">
@@ -46257,7 +46263,7 @@
       <c r="H322" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I322" s="2">
+      <c r="I322" s="3">
         <v>22203</v>
       </c>
       <c r="J322" s="2" t="s">
@@ -46807,7 +46813,7 @@
       <c r="H327" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I327" s="2">
+      <c r="I327" s="3">
         <v>19803</v>
       </c>
       <c r="J327" s="2" t="s">
@@ -46917,7 +46923,7 @@
       <c r="H328" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I328" s="2">
+      <c r="I328" s="3">
         <v>94089</v>
       </c>
       <c r="J328" s="2" t="s">
@@ -47027,7 +47033,7 @@
       <c r="H329" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I329" s="2">
+      <c r="I329" s="3">
         <v>55413</v>
       </c>
       <c r="J329" s="2" t="s">
@@ -47137,7 +47143,7 @@
       <c r="H330" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="I330" s="2">
+      <c r="I330" s="3">
         <v>65708</v>
       </c>
       <c r="J330" s="2" t="s">
@@ -47247,7 +47253,7 @@
       <c r="H331" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I331" s="2">
+      <c r="I331" s="3">
         <v>98104</v>
       </c>
       <c r="J331" s="2" t="s">
@@ -47467,7 +47473,7 @@
       <c r="H333" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I333" s="2">
+      <c r="I333" s="3">
         <v>37662</v>
       </c>
       <c r="J333" s="2" t="s">
@@ -47797,7 +47803,7 @@
       <c r="H336" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I336" s="2">
+      <c r="I336" s="3">
         <v>23238</v>
       </c>
       <c r="J336" s="2" t="s">
@@ -47907,7 +47913,7 @@
       <c r="H337" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I337" s="2">
+      <c r="I337" s="3">
         <v>10022</v>
       </c>
       <c r="J337" s="2" t="s">
@@ -48017,7 +48023,7 @@
       <c r="H338" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I338" s="2">
+      <c r="I338" s="3">
         <v>10022</v>
       </c>
       <c r="J338" s="2" t="s">
@@ -48127,7 +48133,7 @@
       <c r="H339" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="I339" s="2">
+      <c r="I339" s="3">
         <v>89109</v>
       </c>
       <c r="J339" s="2" t="s">
@@ -48347,7 +48353,7 @@
       <c r="H341" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I341" s="2">
+      <c r="I341" s="3">
         <v>18940</v>
       </c>
       <c r="J341" s="2" t="s">
@@ -48677,7 +48683,7 @@
       <c r="H344" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I344" s="2">
+      <c r="I344" s="3">
         <v>94403</v>
       </c>
       <c r="J344" s="2" t="s">
@@ -48787,7 +48793,7 @@
       <c r="H345" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I345" s="2">
+      <c r="I345" s="3">
         <v>60661</v>
       </c>
       <c r="J345" s="2" t="s">
@@ -48897,7 +48903,7 @@
       <c r="H346" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I346" s="2">
+      <c r="I346" s="3">
         <v>23607</v>
       </c>
       <c r="J346" s="2" t="s">
@@ -49007,7 +49013,7 @@
       <c r="H347" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I347" s="2">
+      <c r="I347" s="3">
         <v>28209</v>
       </c>
       <c r="J347" s="2" t="s">
@@ -49337,7 +49343,7 @@
       <c r="H350" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I350" s="2">
+      <c r="I350" s="3">
         <v>30701</v>
       </c>
       <c r="J350" s="2" t="s">
@@ -49447,7 +49453,7 @@
       <c r="H351" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I351" s="2">
+      <c r="I351" s="3">
         <v>10001</v>
       </c>
       <c r="J351" s="2" t="s">
@@ -49557,7 +49563,7 @@
       <c r="H352" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="I352" s="2">
+      <c r="I352" s="3">
         <v>73142</v>
       </c>
       <c r="J352" s="2" t="s">
@@ -49777,7 +49783,7 @@
       <c r="H354" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I354" s="2">
+      <c r="I354" s="3">
         <v>94547</v>
       </c>
       <c r="J354" s="2" t="s">
@@ -49997,7 +50003,7 @@
       <c r="H356" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="I356" s="2">
+      <c r="I356" s="3">
         <v>83616</v>
       </c>
       <c r="J356" s="2" t="s">
@@ -50107,7 +50113,7 @@
       <c r="H357" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I357" s="2">
+      <c r="I357" s="3">
         <v>11747</v>
       </c>
       <c r="J357" s="2" t="s">
@@ -50217,7 +50223,7 @@
       <c r="H358" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="I358" s="2">
+      <c r="I358" s="3">
         <v>89501</v>
       </c>
       <c r="J358" s="2" t="s">
@@ -50327,7 +50333,7 @@
       <c r="H359" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I359" s="2">
+      <c r="I359" s="3">
         <v>33126</v>
       </c>
       <c r="J359" s="2" t="s">
@@ -50437,7 +50443,7 @@
       <c r="H360" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="I360" s="2">
+      <c r="I360" s="3">
         <v>89109</v>
       </c>
       <c r="J360" s="2" t="s">
@@ -50547,7 +50553,7 @@
       <c r="H361" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="I361" s="2">
+      <c r="I361" s="3">
         <v>53189</v>
       </c>
       <c r="J361" s="2" t="s">
@@ -50657,7 +50663,7 @@
       <c r="H362" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I362" s="2">
+      <c r="I362" s="3">
         <v>33602</v>
       </c>
       <c r="J362" s="2" t="s">
@@ -50767,7 +50773,7 @@
       <c r="H363" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I363" s="2">
+      <c r="I363" s="3">
         <v>19104</v>
       </c>
       <c r="J363" s="2" t="s">
@@ -50877,7 +50883,7 @@
       <c r="H364" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I364" s="2">
+      <c r="I364" s="3">
         <v>60015</v>
       </c>
       <c r="J364" s="2" t="s">
@@ -50987,7 +50993,7 @@
       <c r="H365" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I365" s="2">
+      <c r="I365" s="3">
         <v>48326</v>
       </c>
       <c r="J365" s="2" t="s">
@@ -51097,7 +51103,7 @@
       <c r="H366" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I366" s="2">
+      <c r="I366" s="3">
         <v>76155</v>
       </c>
       <c r="J366" s="2" t="s">
@@ -51207,7 +51213,7 @@
       <c r="H367" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I367" s="2">
+      <c r="I367" s="3">
         <v>43230</v>
       </c>
       <c r="J367" s="2" t="s">
@@ -51317,7 +51323,7 @@
       <c r="H368" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I368" s="2">
+      <c r="I368" s="3">
         <v>11201</v>
       </c>
       <c r="J368" s="2" t="s">
@@ -51427,7 +51433,7 @@
       <c r="H369" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I369" s="2">
+      <c r="I369" s="3">
         <v>95014</v>
       </c>
       <c r="J369" s="2" t="s">
@@ -51647,7 +51653,7 @@
       <c r="H371" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I371" s="2">
+      <c r="I371" s="3">
         <v>94043</v>
       </c>
       <c r="J371" s="2" t="s">
@@ -51867,7 +51873,7 @@
       <c r="H373" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I373" s="2">
+      <c r="I373" s="3">
         <v>46285</v>
       </c>
       <c r="J373" s="2" t="s">
@@ -51977,7 +51983,7 @@
       <c r="H374" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I374" s="2">
+      <c r="I374" s="3">
         <v>78725</v>
       </c>
       <c r="J374" s="2" t="s">
@@ -52087,7 +52093,7 @@
       <c r="H375" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="I375" s="2">
+      <c r="I375" s="3">
         <v>72716</v>
       </c>
       <c r="J375" s="2" t="s">
@@ -52197,7 +52203,7 @@
       <c r="H376" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I376" s="2">
+      <c r="I376" s="3">
         <v>10179</v>
       </c>
       <c r="J376" s="2" t="s">
@@ -52527,7 +52533,7 @@
       <c r="H379" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I379" s="2">
+      <c r="I379" s="3">
         <v>28255</v>
       </c>
       <c r="J379" s="2" t="s">
@@ -52637,7 +52643,7 @@
       <c r="H380" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I380" s="2">
+      <c r="I380" s="3">
         <v>30313</v>
       </c>
       <c r="J380" s="2" t="s">
@@ -53187,7 +53193,7 @@
       <c r="H385" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I385" s="2">
+      <c r="I385" s="3">
         <v>60607</v>
       </c>
       <c r="J385" s="2" t="s">
@@ -53407,7 +53413,7 @@
       <c r="H387" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I387" s="2">
+      <c r="I387" s="3">
         <v>45215</v>
       </c>
       <c r="J387" s="2" t="s">
@@ -53517,7 +53523,7 @@
       <c r="H388" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I388" s="2">
+      <c r="I388" s="3">
         <v>10504</v>
       </c>
       <c r="J388" s="2" t="s">
@@ -53627,7 +53633,7 @@
       <c r="H389" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I389" s="2">
+      <c r="I389" s="3">
         <v>94104</v>
       </c>
       <c r="J389" s="2" t="s">
@@ -53737,7 +53743,7 @@
       <c r="H390" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I390" s="2">
+      <c r="I390" s="3">
         <v>10036</v>
       </c>
       <c r="J390" s="2" t="s">
@@ -53957,7 +53963,7 @@
       <c r="H392" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I392" s="2">
+      <c r="I392" s="3">
         <v>91521</v>
       </c>
       <c r="J392" s="2" t="s">
@@ -54067,7 +54073,7 @@
       <c r="H393" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I393" s="2">
+      <c r="I393" s="3">
         <v>10282</v>
       </c>
       <c r="J393" s="2" t="s">
@@ -54177,7 +54183,7 @@
       <c r="H394" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I394" s="2">
+      <c r="I394" s="3">
         <v>75202</v>
       </c>
       <c r="J394" s="2" t="s">
@@ -54287,7 +54293,7 @@
       <c r="H395" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I395" s="2">
+      <c r="I395" s="3">
         <v>28117</v>
       </c>
       <c r="J395" s="2" t="s">
@@ -54397,7 +54403,7 @@
       <c r="H396" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I396" s="2">
+      <c r="I396" s="3">
         <v>10001</v>
       </c>
       <c r="J396" s="2" t="s">
@@ -55057,7 +55063,7 @@
       <c r="H402" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I402" s="2">
+      <c r="I402" s="3">
         <v>10013</v>
       </c>
       <c r="J402" s="2" t="s">
@@ -55167,7 +55173,7 @@
       <c r="H403" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I403" s="2">
+      <c r="I403" s="3">
         <v>76262</v>
       </c>
       <c r="J403" s="2" t="s">
@@ -55277,7 +55283,7 @@
       <c r="H404" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I404" s="2">
+      <c r="I404" s="3">
         <v>8001</v>
       </c>
       <c r="J404" s="2" t="s">
@@ -55497,7 +55503,7 @@
       <c r="H406" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="I406" s="2">
+      <c r="I406" s="3">
         <v>22202</v>
       </c>
       <c r="J406" s="2" t="s">
@@ -55607,7 +55613,7 @@
       <c r="H407" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I407" s="2">
+      <c r="I407" s="3">
         <v>30328</v>
       </c>
       <c r="J407" s="2" t="s">
@@ -55937,7 +55943,7 @@
       <c r="H410" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I410" s="2">
+      <c r="I410" s="3">
         <v>60025</v>
       </c>
       <c r="J410" s="2" t="s">
@@ -56047,7 +56053,7 @@
       <c r="H411" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I411" s="2">
+      <c r="I411" s="3">
         <v>38120</v>
       </c>
       <c r="J411" s="2" t="s">
@@ -56267,7 +56273,7 @@
       <c r="H413" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I413" s="2">
+      <c r="I413" s="3">
         <v>55402</v>
       </c>
       <c r="J413" s="2" t="s">
@@ -56487,7 +56493,7 @@
       <c r="H415" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I415" s="2">
+      <c r="I415" s="3">
         <v>77056</v>
       </c>
       <c r="J415" s="2" t="s">
@@ -56597,7 +56603,7 @@
       <c r="H416" s="2" t="s">
         <v>2382</v>
       </c>
-      <c r="I416" s="2">
+      <c r="I416" s="3">
         <v>80237</v>
       </c>
       <c r="J416" s="2" t="s">
@@ -56707,7 +56713,7 @@
       <c r="H417" s="2" t="s">
         <v>2382</v>
       </c>
-      <c r="I417" s="2">
+      <c r="I417" s="3">
         <v>80237</v>
       </c>
       <c r="J417" s="2" t="s">
@@ -56817,7 +56823,7 @@
       <c r="H418" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I418" s="2">
+      <c r="I418" s="3">
         <v>28202</v>
       </c>
       <c r="J418" s="2" t="s">
@@ -57037,7 +57043,7 @@
       <c r="H420" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I420" s="2">
+      <c r="I420" s="3">
         <v>79701</v>
       </c>
       <c r="J420" s="2" t="s">
@@ -57587,7 +57593,7 @@
       <c r="H425" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I425" s="2">
+      <c r="I425" s="3">
         <v>27360</v>
       </c>
       <c r="J425" s="2" t="s">
@@ -57697,7 +57703,7 @@
       <c r="H426" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I426" s="2">
+      <c r="I426" s="3">
         <v>32919</v>
       </c>
       <c r="J426" s="2" t="s">
@@ -58027,7 +58033,7 @@
       <c r="H429" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I429" s="2">
+      <c r="I429" s="3">
         <v>17033</v>
       </c>
       <c r="J429" s="2" t="s">
@@ -58247,7 +58253,7 @@
       <c r="H431" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="I431" s="2">
+      <c r="I431" s="3">
         <v>28036</v>
       </c>
       <c r="J431" s="2" t="s">
@@ -58467,7 +58473,7 @@
       <c r="H433" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I433" s="2">
+      <c r="I433" s="3">
         <v>48674</v>
       </c>
       <c r="J433" s="2" t="s">
@@ -58687,7 +58693,7 @@
       <c r="H435" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I435" s="2">
+      <c r="I435" s="3">
         <v>55401</v>
       </c>
       <c r="J435" s="2" t="s">
@@ -59017,7 +59023,7 @@
       <c r="H438" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I438" s="2">
+      <c r="I438" s="3">
         <v>8200</v>
       </c>
       <c r="J438" s="2" t="s">
@@ -59127,7 +59133,7 @@
       <c r="H439" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="I439" s="2">
+      <c r="I439" s="3">
         <v>85250</v>
       </c>
       <c r="J439" s="2" t="s">
@@ -59237,7 +59243,7 @@
       <c r="H440" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I440" s="2">
+      <c r="I440" s="3">
         <v>10153</v>
       </c>
       <c r="J440" s="2" t="s">
@@ -59347,7 +59353,7 @@
       <c r="H441" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I441" s="2">
+      <c r="I441" s="3">
         <v>77010</v>
       </c>
       <c r="J441" s="2" t="s">
@@ -59567,7 +59573,7 @@
       <c r="H443" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I443" s="2">
+      <c r="I443" s="3">
         <v>60061</v>
       </c>
       <c r="J443" s="2" t="s">
@@ -59677,7 +59683,7 @@
       <c r="H444" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I444" s="2">
+      <c r="I444" s="3">
         <v>30326</v>
       </c>
       <c r="J444" s="2" t="s">
@@ -59787,7 +59793,7 @@
       <c r="H445" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I445" s="2">
+      <c r="I445" s="3">
         <v>60601</v>
       </c>
       <c r="J445" s="2" t="s">
@@ -59897,7 +59903,7 @@
       <c r="H446" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I446" s="2">
+      <c r="I446" s="3">
         <v>37027</v>
       </c>
       <c r="J446" s="2" t="s">
@@ -60007,7 +60013,7 @@
       <c r="H447" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I447" s="2">
+      <c r="I447" s="3">
         <v>32114</v>
       </c>
       <c r="J447" s="2" t="s">
@@ -60447,7 +60453,7 @@
       <c r="H451" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I451" s="2">
+      <c r="I451" s="3">
         <v>46580</v>
       </c>
       <c r="J451" s="2" t="s">
@@ -60557,7 +60563,7 @@
       <c r="H452" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I452" s="2">
+      <c r="I452" s="3">
         <v>75240</v>
       </c>
       <c r="J452" s="2" t="s">
@@ -60667,7 +60673,7 @@
       <c r="H453" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I453" s="2">
+      <c r="I453" s="3">
         <v>10003</v>
       </c>
       <c r="J453" s="2" t="s">
@@ -60777,7 +60783,7 @@
       <c r="H454" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I454" s="2">
+      <c r="I454" s="3">
         <v>60015</v>
       </c>
       <c r="J454" s="2" t="s">
@@ -60887,7 +60893,7 @@
       <c r="H455" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="I455" s="2">
+      <c r="I455" s="3">
         <v>85288</v>
       </c>
       <c r="J455" s="2" t="s">
@@ -60997,7 +61003,7 @@
       <c r="H456" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="I456" s="2">
+      <c r="I456" s="3">
         <v>37072</v>
       </c>
       <c r="J456" s="2" t="s">
@@ -61217,7 +61223,7 @@
       <c r="H458" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I458" s="2">
+      <c r="I458" s="3">
         <v>10036</v>
       </c>
       <c r="J458" s="2" t="s">
@@ -61327,7 +61333,7 @@
       <c r="H459" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I459" s="2">
+      <c r="I459" s="3">
         <v>98119</v>
       </c>
       <c r="J459" s="2" t="s">
@@ -61547,7 +61553,7 @@
       <c r="H461" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I461" s="2">
+      <c r="I461" s="3">
         <v>94538</v>
       </c>
       <c r="J461" s="2" t="s">
@@ -61657,7 +61663,7 @@
       <c r="H462" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I462" s="2">
+      <c r="I462" s="3">
         <v>8050</v>
       </c>
       <c r="J462" s="2" t="s">
@@ -61987,7 +61993,7 @@
       <c r="H465" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I465" s="2">
+      <c r="I465" s="3">
         <v>10036</v>
       </c>
       <c r="J465" s="2" t="s">
@@ -62097,7 +62103,7 @@
       <c r="H466" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I466" s="2">
+      <c r="I466" s="3">
         <v>48105</v>
       </c>
       <c r="J466" s="2" t="s">
@@ -62207,7 +62213,7 @@
       <c r="H467" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I467" s="2">
+      <c r="I467" s="3">
         <v>15317</v>
       </c>
       <c r="J467" s="2" t="s">
@@ -62537,7 +62543,7 @@
       <c r="H470" s="2" t="s">
         <v>2382</v>
       </c>
-      <c r="I470" s="2">
+      <c r="I470" s="3">
         <v>80401</v>
       </c>
       <c r="J470" s="2" t="s">
@@ -62867,7 +62873,7 @@
       <c r="H473" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I473" s="2">
+      <c r="I473" s="3">
         <v>10001</v>
       </c>
       <c r="J473" s="2" t="s">
@@ -62977,7 +62983,7 @@
       <c r="H474" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I474" s="2">
+      <c r="I474" s="3">
         <v>75231</v>
       </c>
       <c r="J474" s="2" t="s">
@@ -63197,7 +63203,7 @@
       <c r="H476" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I476" s="2">
+      <c r="I476" s="3">
         <v>30309</v>
       </c>
       <c r="J476" s="2" t="s">
@@ -63307,7 +63313,7 @@
       <c r="H477" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I477" s="2">
+      <c r="I477" s="3">
         <v>76155</v>
       </c>
       <c r="J477" s="2" t="s">
@@ -63417,7 +63423,7 @@
       <c r="H478" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I478" s="2">
+      <c r="I478" s="3">
         <v>10036</v>
       </c>
       <c r="J478" s="2" t="s">
